--- a/server/build/classes/Cuentas.xlsx
+++ b/server/build/classes/Cuentas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Server\Obligatorio-Sistemas-Operativos-\server\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FF6E52-D78D-4148-9033-162C5B38B481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CD2BA1-0333-4E8E-8AE0-7B37C7E7483A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13728" yWindow="5280" windowWidth="17280" windowHeight="8964" xr2:uid="{8FA0EBCC-364E-40BC-AEE3-AE7A0D79817A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8FA0EBCC-364E-40BC-AEE3-AE7A0D79817A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Montevideo</t>
   </si>
@@ -91,13 +91,34 @@
   </si>
   <si>
     <t>Treinta y Tres</t>
+  </si>
+  <si>
+    <t>Vacunas reales</t>
+  </si>
+  <si>
+    <t>Poblacion muestra</t>
+  </si>
+  <si>
+    <t>Poblacion real a vacunar</t>
+  </si>
+  <si>
+    <t>Vacunas Muestra</t>
+  </si>
+  <si>
+    <t>Relación</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Fecha llegada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,16 +126,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -122,12 +175,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,15 +550,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2D7A38-D3AE-45AC-9FEA-3A644835CFF6}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +576,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -477,8 +591,17 @@
         <f>D1+D2</f>
         <v>4200</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -493,8 +616,18 @@
         <f>D3+E2</f>
         <v>5800</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H3" s="9">
+        <v>44253</v>
+      </c>
+      <c r="I3" s="10">
+        <v>192000</v>
+      </c>
+      <c r="J3" s="10">
+        <f>I3*$J$18</f>
+        <v>843.52705019908558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -509,8 +642,18 @@
         <f t="shared" ref="E4:E19" si="1">D4+E3</f>
         <v>6100</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H4" s="3">
+        <v>44265</v>
+      </c>
+      <c r="I4" s="4">
+        <v>50000</v>
+      </c>
+      <c r="J4" s="4">
+        <f>I4*$J$18</f>
+        <v>219.66850265601187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -525,8 +668,18 @@
         <f t="shared" si="1"/>
         <v>6400</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H5" s="3">
+        <v>44271</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1558000</v>
+      </c>
+      <c r="J5" s="4">
+        <f>I5*$J$18</f>
+        <v>6844.8705427613295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -541,8 +694,18 @@
         <f t="shared" si="1"/>
         <v>6600</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H6" s="3">
+        <v>44272</v>
+      </c>
+      <c r="I6" s="4">
+        <v>53310</v>
+      </c>
+      <c r="J6" s="4">
+        <f>I6*$J$18</f>
+        <v>234.21055753183984</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -557,8 +720,18 @@
         <f t="shared" si="1"/>
         <v>6700</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H7" s="3">
+        <v>44280</v>
+      </c>
+      <c r="I7" s="4">
+        <v>50000</v>
+      </c>
+      <c r="J7" s="4">
+        <f>I7*$J$18</f>
+        <v>219.66850265601187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -573,8 +746,18 @@
         <f t="shared" si="1"/>
         <v>6900</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H8" s="3">
+        <v>44290</v>
+      </c>
+      <c r="I8" s="4">
+        <v>48000</v>
+      </c>
+      <c r="J8" s="4">
+        <f>I8*$J$18</f>
+        <v>210.88176254977139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -589,8 +772,18 @@
         <f t="shared" si="1"/>
         <v>7100</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H9" s="3">
+        <v>44324</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="J9" s="4">
+        <f>I9*$J$18</f>
+        <v>4393.3700531202367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -605,8 +798,18 @@
         <f t="shared" si="1"/>
         <v>7600</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H10" s="3">
+        <v>44330</v>
+      </c>
+      <c r="I10" s="4">
+        <v>50400</v>
+      </c>
+      <c r="J10" s="4">
+        <f>I10*$J$18</f>
+        <v>221.42585067725994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -621,8 +824,18 @@
         <f t="shared" si="1"/>
         <v>7900</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H11" s="3">
+        <v>44331</v>
+      </c>
+      <c r="I11" s="4">
+        <v>119340</v>
+      </c>
+      <c r="J11" s="4">
+        <f>I11*$J$18</f>
+        <v>524.30478213936908</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -637,8 +850,18 @@
         <f t="shared" si="1"/>
         <v>8100</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H12" s="7">
+        <v>44345</v>
+      </c>
+      <c r="I12" s="8">
+        <v>550000</v>
+      </c>
+      <c r="J12" s="8">
+        <f>I12*$J$18</f>
+        <v>2416.3535292161305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -653,8 +876,19 @@
         <f t="shared" si="1"/>
         <v>8400</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="6">
+        <f ca="1">SUM(I3:I13)</f>
+        <v>3671050</v>
+      </c>
+      <c r="J13" s="6">
+        <f ca="1">SUM(J3:J13)</f>
+        <v>16128.281133507047</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -669,8 +903,11 @@
         <f t="shared" si="1"/>
         <v>8600</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -685,8 +922,11 @@
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -701,8 +941,15 @@
         <f t="shared" si="1"/>
         <v>9300</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H16" s="12"/>
+      <c r="I16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2276157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -717,8 +964,15 @@
         <f t="shared" si="1"/>
         <v>9600</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H17" s="12"/>
+      <c r="I17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -733,8 +987,16 @@
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H18" s="12"/>
+      <c r="I18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="2">
+        <f>J17/J16</f>
+        <v>4.3933700531202371E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -752,5 +1014,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>